--- a/Documentation/Request_Data_Details.xlsx
+++ b/Documentation/Request_Data_Details.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zed\Desktop\SOFT564Z-CW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A780AEB-9380-4186-8FE5-3EE365E4524C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65D1442-3FD0-404C-A879-0D024AEE95E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
   <si>
     <t>Request Type</t>
   </si>
@@ -60,15 +69,6 @@
     <t>0 to 4,294,967,295</t>
   </si>
   <si>
-    <t>All available client IDs that the server can assign to connected clients.</t>
-  </si>
-  <si>
-    <t>All available ports.</t>
-  </si>
-  <si>
-    <t>All available client IP addresses in IPv4.</t>
-  </si>
-  <si>
     <t>ListRemoveClient</t>
   </si>
   <si>
@@ -234,9 +234,6 @@
     <t>1 to 1</t>
   </si>
   <si>
-    <t>Sends the configuration update status</t>
-  </si>
-  <si>
     <t>1 - OK. Update was successful.</t>
   </si>
   <si>
@@ -259,6 +256,72 @@
   </si>
   <si>
     <t>3 - Autonomous Mode</t>
+  </si>
+  <si>
+    <t>Autonomous Mode Data Transmission Frequency:</t>
+  </si>
+  <si>
+    <t>Maximum Object Distance:</t>
+  </si>
+  <si>
+    <t>Buggy Speed:</t>
+  </si>
+  <si>
+    <t>Difference in Light Intensity:</t>
+  </si>
+  <si>
+    <t>Refer to configuration  parameter in UpdateConfigOption</t>
+  </si>
+  <si>
+    <t>The data will not differ from the available options.</t>
+  </si>
+  <si>
+    <t>neg 40 to pos 85</t>
+  </si>
+  <si>
+    <t>0 to 100</t>
+  </si>
+  <si>
+    <t>0 to 4095</t>
+  </si>
+  <si>
+    <t>range of temperatures BME280 can measure</t>
+  </si>
+  <si>
+    <t>range of humidity in (%) BME280 can measure</t>
+  </si>
+  <si>
+    <t>range of the ESP32 ADC.</t>
+  </si>
+  <si>
+    <t>All available client IP addresses in IPv4. Sent to the clients in order to store for potential future usage when a controller client wants to connect to the buggy.</t>
+  </si>
+  <si>
+    <t>All available ports. Sent to the clients in order to store for potential future usage when a controller client wants to connect to the buggy.</t>
+  </si>
+  <si>
+    <t>All available client IDs that the server can assign to connected clients. Sent to the clients in order to store for potential future usage when a controller client wants to connect to the buggy.</t>
+  </si>
+  <si>
+    <t>All available client IDs that the server can assign to connected clients. Sent to clients that are connected in order for them to be able to identify which client information they need to remove from their client lists.</t>
+  </si>
+  <si>
+    <t>All available client IDs that the server can assign to connected clients. Sent to the server by the controller client so it knows which buggy the controller client wants to connect to.</t>
+  </si>
+  <si>
+    <t>All available client IDs that the server can assign to connected clients. This is actually not sent but appended to the requet before it goes into the request queue. This is done in order for the request handler to know what client it should send the response to.</t>
+  </si>
+  <si>
+    <t>Sent by the controller client so that the server knows which controller client and buggy to deassociate as connected.</t>
+  </si>
+  <si>
+    <t>5 options available to update the buggy configuration option with.</t>
+  </si>
+  <si>
+    <t>Data sent back to the controller client from the buggy to notify it whether the update was successful.</t>
+  </si>
+  <si>
+    <t>Sent by the server to the server in order for it to know which client disconnected and therefore which to remove.</t>
   </si>
 </sst>
 </file>
@@ -331,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -597,15 +660,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,9 +770,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -683,6 +779,36 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,693 +1089,897 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="63.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="C10" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="24" t="s">
+      <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10">
+        <v>6</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33"/>
+      <c r="B33" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="10">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="45"/>
+      <c r="B40" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="24">
+        <v>10</v>
+      </c>
+      <c r="D46" s="49"/>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="35"/>
+      <c r="B47" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="35"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="35"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="35"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="33"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>11</v>
+      </c>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31"/>
+      <c r="B53" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="10">
+        <v>12</v>
+      </c>
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="35"/>
+      <c r="B55" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="35"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="35"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="35"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="35"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
+      <c r="B60" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9">
+        <v>500</v>
+      </c>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9">
+        <v>200</v>
+      </c>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9">
+        <v>100</v>
+      </c>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9">
+        <v>50</v>
+      </c>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9">
+        <v>50</v>
+      </c>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="53">
+        <v>40</v>
+      </c>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="53">
+        <v>30</v>
+      </c>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="53">
+        <v>20</v>
+      </c>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="53">
+        <v>10</v>
+      </c>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="53">
+        <v>255</v>
+      </c>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="53">
+        <v>230</v>
+      </c>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="53">
+        <v>210</v>
+      </c>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="53">
+        <v>190</v>
+      </c>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="53">
+        <v>170</v>
+      </c>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="53">
+        <v>100</v>
+      </c>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="53">
+        <v>70</v>
+      </c>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="53">
+        <v>40</v>
+      </c>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="53">
+        <v>20</v>
+      </c>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="58"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="60">
+        <v>10</v>
+      </c>
+      <c r="D83" s="51"/>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="54">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="39" t="s">
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="30"/>
+      <c r="B85" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="31"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="57">
+        <v>14</v>
+      </c>
+      <c r="D87" s="26"/>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="54">
+        <v>15</v>
+      </c>
+      <c r="D88" s="21"/>
+    </row>
+    <row r="89" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="31"/>
+      <c r="B89" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C89" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="40" t="s">
+      <c r="D89" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="20">
-        <v>3</v>
-      </c>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="11">
-        <v>4</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="11">
-        <v>6</v>
-      </c>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="3">
-        <v>7</v>
-      </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="11">
-        <v>8</v>
-      </c>
-      <c r="D39" s="12"/>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3">
-        <v>9</v>
-      </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="25">
-        <v>10</v>
-      </c>
-      <c r="D46" s="51"/>
-    </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="34"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="3">
-        <v>11</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="32"/>
-      <c r="B53" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="11">
-        <v>12</v>
-      </c>
-      <c r="D54" s="12"/>
-    </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="34"/>
-      <c r="B60" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="17"/>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="3">
-        <v>13</v>
-      </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="21">
-        <v>14</v>
-      </c>
-      <c r="D64" s="27"/>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="3">
-        <v>15</v>
-      </c>
-      <c r="D65" s="22"/>
-    </row>
-    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="32"/>
-      <c r="B66" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="23"/>
-    </row>
-    <row r="67" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="21">
+      <c r="C90" s="20">
         <v>0</v>
       </c>
-      <c r="D67" s="27"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="1"/>
+      <c r="D90" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Request_Data_Details.xlsx
+++ b/Documentation/Request_Data_Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zed\Desktop\SOFT564Z-CW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65D1442-3FD0-404C-A879-0D024AEE95E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D955B302-6E50-4A8C-A0C5-645ADE23C3FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1094,8 +1094,8 @@
   </sheetPr>
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Request_Data_Details.xlsx
+++ b/Documentation/Request_Data_Details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zed\Desktop\SOFT564Z-CW\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D955B302-6E50-4A8C-A0C5-645ADE23C3FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059910E4-408A-4DEA-963D-98D52CA32884}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
   <si>
     <t>Request Type</t>
   </si>
@@ -322,6 +322,24 @@
   </si>
   <si>
     <t>Sent by the server to the server in order for it to know which client disconnected and therefore which to remove.</t>
+  </si>
+  <si>
+    <t>BuggyOrClient</t>
+  </si>
+  <si>
+    <t>Identification</t>
+  </si>
+  <si>
+    <t>0 to 1</t>
+  </si>
+  <si>
+    <t>1 - The connected device identifies itself as a controller client.</t>
+  </si>
+  <si>
+    <t>0 - The connected device identifies itself as a buggy.</t>
+  </si>
+  <si>
+    <t>Sent by buggy or controller client in order for the server to know which device sent the request.</t>
   </si>
 </sst>
 </file>
@@ -394,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -699,11 +717,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -738,7 +795,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -808,6 +864,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,10 +1154,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,24 +1169,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
@@ -1133,8 +1195,8 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1145,8 +1207,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1157,8 +1219,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1169,10 +1231,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="10">
@@ -1181,8 +1243,8 @@
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -1193,22 +1255,22 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="19">
         <v>3</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="10">
@@ -1217,11 +1279,11 @@
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -1229,11 +1291,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="60" t="s">
         <v>81</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -1241,11 +1303,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="61" t="s">
         <v>82</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -1253,10 +1315,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2">
@@ -1265,8 +1327,8 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1277,138 +1339,138 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="1"/>
       <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="1"/>
       <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="1"/>
       <c r="D24" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="1"/>
       <c r="D26" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="1"/>
       <c r="D27" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="1"/>
       <c r="D28" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="1"/>
       <c r="D29" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="10">
@@ -1417,8 +1479,8 @@
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="42" t="s">
+      <c r="A32" s="34"/>
+      <c r="B32" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -1429,8 +1491,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="40" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -1441,10 +1503,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="2">
@@ -1453,8 +1515,8 @@
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="23" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1465,34 +1527,34 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="1"/>
       <c r="D36" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="1"/>
       <c r="D37" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="10">
@@ -1501,8 +1563,8 @@
       <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
-      <c r="B40" s="46" t="s">
+      <c r="A40" s="44"/>
+      <c r="B40" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="17" t="s">
@@ -1513,10 +1575,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="2">
@@ -1525,8 +1587,8 @@
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1540,7 +1602,7 @@
       <c r="A43" s="4"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="49" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1548,7 +1610,7 @@
       <c r="A44" s="4"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="49" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1556,25 +1618,25 @@
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="23">
         <v>10</v>
       </c>
-      <c r="D46" s="49"/>
+      <c r="D46" s="48"/>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="42" t="s">
+      <c r="A47" s="34"/>
+      <c r="B47" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="9" t="s">
@@ -1585,42 +1647,42 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="42"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="9"/>
       <c r="D48" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="42"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="9"/>
       <c r="D49" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="42"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="9"/>
       <c r="D50" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="33"/>
-      <c r="B51" s="40"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="14"/>
       <c r="D51" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="2">
@@ -1629,11 +1691,11 @@
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="31"/>
-      <c r="B53" s="43" t="s">
+      <c r="A53" s="30"/>
+      <c r="B53" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="55" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -1641,10 +1703,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="10">
@@ -1653,8 +1715,8 @@
       <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="42" t="s">
+      <c r="A55" s="34"/>
+      <c r="B55" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C55" s="9" t="s">
@@ -1665,43 +1727,43 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="42"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="9"/>
       <c r="D56" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="42"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="9"/>
       <c r="D57" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="41"/>
       <c r="C58" s="9"/>
       <c r="D58" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="42"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="9"/>
       <c r="D59" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="52" t="s">
+      <c r="A60" s="34"/>
+      <c r="B60" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="52" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="12" t="s">
@@ -1751,7 +1813,7 @@
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
-      <c r="C66" s="53" t="s">
+      <c r="C66" s="52" t="s">
         <v>75</v>
       </c>
       <c r="D66" s="9" t="s">
@@ -1769,7 +1831,7 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
-      <c r="C68" s="53">
+      <c r="C68" s="52">
         <v>40</v>
       </c>
       <c r="D68" s="9"/>
@@ -1777,7 +1839,7 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
-      <c r="C69" s="53">
+      <c r="C69" s="52">
         <v>30</v>
       </c>
       <c r="D69" s="9"/>
@@ -1785,7 +1847,7 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
-      <c r="C70" s="53">
+      <c r="C70" s="52">
         <v>20</v>
       </c>
       <c r="D70" s="9"/>
@@ -1793,7 +1855,7 @@
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
-      <c r="C71" s="53">
+      <c r="C71" s="52">
         <v>10</v>
       </c>
       <c r="D71" s="9"/>
@@ -1801,17 +1863,17 @@
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="D72" s="53" t="s">
+      <c r="D72" s="52" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
-      <c r="C73" s="53">
+      <c r="C73" s="52">
         <v>255</v>
       </c>
       <c r="D73" s="9"/>
@@ -1819,7 +1881,7 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
-      <c r="C74" s="53">
+      <c r="C74" s="52">
         <v>230</v>
       </c>
       <c r="D74" s="9"/>
@@ -1827,7 +1889,7 @@
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
-      <c r="C75" s="53">
+      <c r="C75" s="52">
         <v>210</v>
       </c>
       <c r="D75" s="9"/>
@@ -1835,7 +1897,7 @@
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
-      <c r="C76" s="53">
+      <c r="C76" s="52">
         <v>190</v>
       </c>
       <c r="D76" s="9"/>
@@ -1843,7 +1905,7 @@
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
-      <c r="C77" s="53">
+      <c r="C77" s="52">
         <v>170</v>
       </c>
       <c r="D77" s="9"/>
@@ -1851,7 +1913,7 @@
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="52" t="s">
         <v>77</v>
       </c>
       <c r="D78" s="9" t="s">
@@ -1861,7 +1923,7 @@
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
-      <c r="C79" s="53">
+      <c r="C79" s="52">
         <v>100</v>
       </c>
       <c r="D79" s="9"/>
@@ -1869,7 +1931,7 @@
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
-      <c r="C80" s="53">
+      <c r="C80" s="52">
         <v>70</v>
       </c>
       <c r="D80" s="9"/>
@@ -1877,7 +1939,7 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
-      <c r="C81" s="53">
+      <c r="C81" s="52">
         <v>40</v>
       </c>
       <c r="D81" s="9"/>
@@ -1885,37 +1947,37 @@
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
-      <c r="C82" s="53">
+      <c r="C82" s="52">
         <v>20</v>
       </c>
       <c r="D82" s="9"/>
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="58"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="60">
+      <c r="A83" s="57"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="59">
         <v>10</v>
       </c>
-      <c r="D83" s="51"/>
+      <c r="D83" s="50"/>
     </row>
     <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B84" s="37" t="s">
+      <c r="B84" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="54">
+      <c r="C84" s="53">
         <v>13</v>
       </c>
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="30"/>
-      <c r="B85" s="23" t="s">
+      <c r="A85" s="29"/>
+      <c r="B85" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C85" s="55" t="s">
+      <c r="C85" s="54" t="s">
         <v>65</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -1923,43 +1985,43 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="31"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="56"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="55"/>
       <c r="D86" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="36" t="s">
+      <c r="A87" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B87" s="44" t="s">
+      <c r="B87" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="57">
+      <c r="C87" s="56">
         <v>14</v>
       </c>
-      <c r="D87" s="26"/>
+      <c r="D87" s="25"/>
     </row>
     <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B88" s="37" t="s">
+      <c r="B88" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="54">
+      <c r="C88" s="53">
         <v>15</v>
       </c>
-      <c r="D88" s="21"/>
+      <c r="D88" s="20"/>
     </row>
     <row r="89" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="31"/>
-      <c r="B89" s="38" t="s">
+      <c r="A89" s="30"/>
+      <c r="B89" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="56" t="s">
+      <c r="C89" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D89" s="8" t="s">
@@ -1967,16 +2029,66 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="36" t="s">
+      <c r="A90" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="20">
+      <c r="C90" s="64">
         <v>0</v>
       </c>
-      <c r="D90" s="26"/>
+      <c r="D90" s="65"/>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="2">
+        <v>16</v>
+      </c>
+      <c r="D91" s="20"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="49"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
